--- a/Experiemte_Logbuch.xlsx
+++ b/Experiemte_Logbuch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Documents\GitHub\platonic_solids_in_4d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA92FA6-2836-495A-98D9-945262CE0BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173830CC-FD9D-4911-A968-273DEB27EA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A70D58DE-C9FC-4C14-83C3-0A2D1DD361BA}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{A70D58DE-C9FC-4C14-83C3-0A2D1DD361BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimente" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Experimente Logbuch</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>Winkel, Puntke, alle Bereiche</t>
+  </si>
+  <si>
+    <t>el_20231227_01</t>
+  </si>
+  <si>
+    <t>Würfelecke, 200 Winkel, 0-2pi,100_000</t>
+  </si>
+  <si>
+    <t>el_20231227_02</t>
+  </si>
+  <si>
+    <t>el_20231227_03</t>
+  </si>
+  <si>
+    <t>Würfelecken,10 Winkel, 0-2pi, 1_000</t>
   </si>
 </sst>
 </file>
@@ -126,10 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -444,11 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D3497-3292-4118-9555-4883492F9DA7}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,29 +506,71 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>27.12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3">
+        <v>27.12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
+        <v>27.12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>28.12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D6" s="1">
         <v>0.76250000000000007</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E6" s="1">
         <v>0.76388888888888884</v>
       </c>
-      <c r="F3">
+      <c r="F6">
         <v>155.76188802719099</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Experiemte_Logbuch.xlsx
+++ b/Experiemte_Logbuch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Documents\GitHub\platonic_solids_in_4d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173830CC-FD9D-4911-A968-273DEB27EA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4BEF97-E85E-4DDB-9898-7FFE98DC7E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{A70D58DE-C9FC-4C14-83C3-0A2D1DD361BA}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{A70D58DE-C9FC-4C14-83C3-0A2D1DD361BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimente" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Experimente Logbuch</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Würfelecken,10 Winkel, 0-2pi, 1_000</t>
+  </si>
+  <si>
+    <t>el_20231228_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3d rotation </t>
+  </si>
+  <si>
+    <t>viereckecke, 100 Winkel, 0-2pi, 10_000</t>
   </si>
 </sst>
 </file>
@@ -141,12 +150,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -461,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D3497-3292-4118-9555-4883492F9DA7}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,45 +513,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>27.12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>27.12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>27.12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -572,6 +579,29 @@
       </c>
       <c r="H6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>28.12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="F7">
+        <v>28.1735324859619</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Experiemte_Logbuch.xlsx
+++ b/Experiemte_Logbuch.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Documents\GitHub\platonic_solids_in_4d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4BEF97-E85E-4DDB-9898-7FFE98DC7E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4BA89E-7AD4-48E7-9825-385BE46E7EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{A70D58DE-C9FC-4C14-83C3-0A2D1DD361BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimente" sheetId="1" r:id="rId1"/>
-    <sheet name="el_20231228_01" sheetId="2" r:id="rId2"/>
+    <sheet name="el_20231228_x" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Experimente Logbuch</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>viereckecke, 100 Winkel, 0-2pi, 10_000</t>
+  </si>
+  <si>
+    <t>el_20231228_03</t>
+  </si>
+  <si>
+    <t>viereckecke, 200 Winkel, 0-2pi, 100_000</t>
+  </si>
+  <si>
+    <t>3d rotation ordentlich</t>
+  </si>
+  <si>
+    <t>el_20231228_02_01</t>
+  </si>
+  <si>
+    <t>el_20231228_03_01</t>
+  </si>
+  <si>
+    <t>Winkel gegen Punkte, alle Bereiche</t>
   </si>
 </sst>
 </file>
@@ -468,11 +486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D3497-3292-4118-9555-4883492F9DA7}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,6 +622,32 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>28.12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.96805555555555556</v>
+      </c>
+      <c r="F8">
+        <v>597.11169981956402</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -611,32 +655,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53230E5A-B810-4767-89AC-AE9A95797117}">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" customWidth="1"/>
+    <col min="5" max="5" width="33.08984375" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" customWidth="1"/>
+    <col min="8" max="8" width="32.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
